--- a/Tables/Supplementary_Table_4.xlsx
+++ b/Tables/Supplementary_Table_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5700" tabRatio="893" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5700" tabRatio="893" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Deep_Learning" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="562">
   <si>
     <t>Drug</t>
   </si>
@@ -1719,6 +1719,15 @@
   </si>
   <si>
     <t>False Positive Rate</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Prediction Performance Metric</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1763,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1786,11 +1795,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1798,12 +1848,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,6 +1859,25 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1855,9 +1918,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.9214214279787402E-2"/>
-          <c:y val="0.25715498938428877"/>
-          <c:w val="0.89303758827151603"/>
-          <c:h val="0.54848220405570325"/>
+          <c:y val="0.25715498938428888"/>
+          <c:w val="0.89303758827151591"/>
+          <c:h val="0.54848220405570314"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1868,7 +1931,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comp!$B$2</c:f>
+              <c:f>Comp!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1879,7 +1942,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Comp!$A$3:$A$8</c:f>
+              <c:f>Comp!$A$4:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1905,7 +1968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comp!$B$3:$B$8</c:f>
+              <c:f>Comp!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1936,7 +1999,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comp!$C$2</c:f>
+              <c:f>Comp!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1952,7 +2015,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Comp!$A$3:$A$8</c:f>
+              <c:f>Comp!$A$4:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1978,7 +2041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comp!$C$3:$C$8</c:f>
+              <c:f>Comp!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2004,14 +2067,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="94671616"/>
-        <c:axId val="94673152"/>
+        <c:axId val="64153088"/>
+        <c:axId val="64154624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94671616"/>
+        <c:axId val="64153088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,14 +2090,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94673152"/>
+        <c:crossAx val="64154624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94673152"/>
+        <c:axId val="64154624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94671616"/>
+        <c:crossAx val="64153088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2070,9 +2132,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.3311104414776775E-2"/>
-          <c:y val="0.11959788465932204"/>
-          <c:w val="0.89999991265650858"/>
+          <c:x val="6.3311104414776789E-2"/>
+          <c:y val="0.11959788465932203"/>
+          <c:w val="0.89999991265650892"/>
           <c:h val="9.9085767145348877E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2091,7 +2153,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2289,7 +2351,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2411,7 +2473,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2421,16 +2483,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29003,112 +29065,175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.28515625"/>
-    <col min="2" max="2" width="13"/>
-    <col min="3" max="3" width="14.5703125"/>
-    <col min="4" max="1025" width="11.28515625"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="12" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="D3" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="12">
         <v>0.42233491749818203</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="12">
         <v>0.52554562428727303</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D4" s="13">
+        <v>1.2912170000000001E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.5553869999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="12">
         <v>0.91015158224363601</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="12">
         <v>0.80961671361454501</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="D5" s="13">
+        <v>6.5301600000000001E-3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1.077615E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="12">
         <v>0.85304625204727302</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="12">
         <v>0.77652312600363604</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D6" s="12">
+        <v>4.968816E-3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>8.1835850000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="12">
         <v>0.53956477966545502</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="12">
         <v>0.38752246572363602</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D7" s="12">
+        <v>1.357555E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.295142E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="12">
         <v>0.92238405205090901</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="12">
         <v>0.93031724377090896</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D8" s="12">
+        <v>2.1600479999999999E-3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.3147699999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="12">
         <v>8.9848417850909107E-2</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="12">
         <v>0.19038328638545499</v>
       </c>
+      <c r="D9" s="12">
+        <v>6.5301600000000001E-3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1.077615E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29116,7 +29241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -29129,229 +29254,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <f>(B3/276)*100</f>
         <v>0.72463768115942029</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>47</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <f t="shared" ref="C4:C7" si="0">(B4/276)*100</f>
         <v>17.028985507246379</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <f>SUM(C3:C4)</f>
         <v>17.7536231884058</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>150</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>54.347826086956516</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f>SUM(C3:C5)</f>
         <v>72.101449275362313</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>65</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>23.55072463768116</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <f>SUM(C3:C6)</f>
         <v>95.65217391304347</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>12</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>4.3478260869565215</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f>SUM(C3:C7)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <f>SUM(B3:B7)</f>
         <v>276</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <f>SUM(C3:C7)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <f>(B13/276)*100</f>
         <v>0</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>27</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <f t="shared" ref="C14:C17" si="1">(B14/276)*100</f>
         <v>9.7826086956521738</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <f>SUM(C13:C14)</f>
         <v>9.7826086956521738</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>131</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <f t="shared" si="1"/>
         <v>47.463768115942031</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <f>SUM(C13:C15)</f>
         <v>57.246376811594203</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>92</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <f>SUM(C13:C16)</f>
         <v>90.579710144927532</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>26</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <f t="shared" si="1"/>
         <v>9.4202898550724647</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <f>SUM(C13:C17)</f>
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <f>SUM(B13:B17)</f>
         <v>276</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <f>SUM(C13:C17)</f>
         <v>100</v>
       </c>
